--- a/data/trans_orig/ESTUDIOS-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/ESTUDIOS-Estudios-trans_orig.xlsx
@@ -1392,19 +1392,19 @@
         <v>551408</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>506909</v>
+        <v>508010</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>596922</v>
+        <v>600688</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1682895266664256</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1547083909253991</v>
+        <v>0.1550446126267401</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1821803606201461</v>
+        <v>0.1833297997465004</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>452</v>
@@ -1413,19 +1413,19 @@
         <v>476412</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>434610</v>
+        <v>433795</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>516950</v>
+        <v>513047</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1409836667247915</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1286133334959173</v>
+        <v>0.1283723415061033</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1529800382582012</v>
+        <v>0.1518251782734777</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>979</v>
@@ -1434,19 +1434,19 @@
         <v>1027820</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>968555</v>
+        <v>968201</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1086548</v>
+        <v>1088661</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1544260224295014</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.145521768026678</v>
+        <v>0.1454685228849773</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1632497183662329</v>
+        <v>0.1635671674071846</v>
       </c>
     </row>
     <row r="17">
@@ -1463,19 +1463,19 @@
         <v>1693412</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1636169</v>
+        <v>1639240</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1749888</v>
+        <v>1754871</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5168289865431085</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4993582209860148</v>
+        <v>0.500295582812433</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5340651849202904</v>
+        <v>0.5355859887156508</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1554</v>
@@ -1484,19 +1484,19 @@
         <v>1587673</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1521309</v>
+        <v>1522035</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1639756</v>
+        <v>1641193</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4698373352784287</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4501982972497479</v>
+        <v>0.4504131946474661</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4852502500580329</v>
+        <v>0.4856755405857938</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3203</v>
@@ -1505,19 +1505,19 @@
         <v>3281086</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3194861</v>
+        <v>3199496</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3358482</v>
+        <v>3357002</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4929707759685117</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4800158513507115</v>
+        <v>0.4807121853212329</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.504599287829434</v>
+        <v>0.5043769577009001</v>
       </c>
     </row>
     <row r="18">
@@ -1534,19 +1534,19 @@
         <v>1031723</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>978151</v>
+        <v>981457</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1088073</v>
+        <v>1079146</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.314881486790466</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2985314059751181</v>
+        <v>0.2995405507662482</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3320794438032144</v>
+        <v>0.329355013090435</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1291</v>
@@ -1555,19 +1555,19 @@
         <v>1315113</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1262390</v>
+        <v>1262029</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>1374457</v>
+        <v>1374349</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3891789979967798</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.373577040571679</v>
+        <v>0.3734701899052664</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.406740756405223</v>
+        <v>0.4067086439045391</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>2329</v>
@@ -1576,19 +1576,19 @@
         <v>2346836</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>2273571</v>
+        <v>2271059</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>2423953</v>
+        <v>2423438</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3526032016019869</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3415954753050385</v>
+        <v>0.3412180620294918</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3641898200763027</v>
+        <v>0.364112409931976</v>
       </c>
     </row>
     <row r="19">
@@ -2567,19 +2567,19 @@
         <v>481181</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>440249</v>
+        <v>439111</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>528073</v>
+        <v>529490</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.140705301530565</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1287360753238463</v>
+        <v>0.1284032854826844</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1544171222528681</v>
+        <v>0.1548316377907666</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>412</v>
@@ -2588,19 +2588,19 @@
         <v>458631</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>418494</v>
+        <v>413777</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>500358</v>
+        <v>504419</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1290380895694999</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1177452661646739</v>
+        <v>0.1164180780251009</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1407780941734813</v>
+        <v>0.1419206460135314</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>850</v>
@@ -2609,19 +2609,19 @@
         <v>939813</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>884723</v>
+        <v>876323</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>996977</v>
+        <v>998708</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1347592324222216</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1268600297609699</v>
+        <v>0.1256555708675584</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.142956055376974</v>
+        <v>0.1432042837635524</v>
       </c>
     </row>
     <row r="17">
@@ -2638,19 +2638,19 @@
         <v>1963957</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1902976</v>
+        <v>1906248</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2022971</v>
+        <v>2026746</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5742931829222782</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5564610641889376</v>
+        <v>0.5574179987410185</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5915497691751744</v>
+        <v>0.5926535126403256</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1635</v>
@@ -2659,19 +2659,19 @@
         <v>1757803</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1700216</v>
+        <v>1699273</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1822466</v>
+        <v>1822405</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4945663375536714</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4783642047066977</v>
+        <v>0.4780987805318888</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5127597080087322</v>
+        <v>0.512742430906509</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3491</v>
@@ -2680,19 +2680,19 @@
         <v>3721760</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3635991</v>
+        <v>3633947</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3810982</v>
+        <v>3806784</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5336612535518388</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5213629166832029</v>
+        <v>0.5210697731375737</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5464548128971476</v>
+        <v>0.5458528711921562</v>
       </c>
     </row>
     <row r="18">
@@ -2709,19 +2709,19 @@
         <v>974643</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>917115</v>
+        <v>918164</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1027451</v>
+        <v>1031998</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2850015155471569</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2681793594911166</v>
+        <v>0.2684861760847969</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3004434850385819</v>
+        <v>0.3017728927034498</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1247</v>
@@ -2730,19 +2730,19 @@
         <v>1337796</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1277582</v>
+        <v>1278235</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>1395093</v>
+        <v>1401578</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3763955728768287</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3594539097542522</v>
+        <v>0.3596376603576684</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.392516265551095</v>
+        <v>0.3943408754051267</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>2155</v>
@@ -2751,19 +2751,19 @@
         <v>2312440</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>2227632</v>
+        <v>2242443</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>2389839</v>
+        <v>2397906</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3315795140259396</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3194190672102404</v>
+        <v>0.3215427808586468</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.342677832818108</v>
+        <v>0.3438344719226277</v>
       </c>
     </row>
     <row r="19">
@@ -3742,19 +3742,19 @@
         <v>546886</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>500889</v>
+        <v>498380</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>591179</v>
+        <v>589637</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1619147729998532</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1482965534860588</v>
+        <v>0.1475535614017656</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1750284842773129</v>
+        <v>0.1745719272684658</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>526</v>
@@ -3763,19 +3763,19 @@
         <v>549140</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>505017</v>
+        <v>507052</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>593009</v>
+        <v>599698</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1554713327523181</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1429793028985918</v>
+        <v>0.1435553678654102</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1678914263549025</v>
+        <v>0.1697852218355065</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1027</v>
@@ -3784,19 +3784,19 @@
         <v>1096027</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1034521</v>
+        <v>1035501</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1153671</v>
+        <v>1161098</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1586210239150958</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1497196513775693</v>
+        <v>0.1498615711703657</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1669635909264165</v>
+        <v>0.1680383614090235</v>
       </c>
     </row>
     <row r="17">
@@ -3813,19 +3813,19 @@
         <v>2076385</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2020474</v>
+        <v>2020371</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2133572</v>
+        <v>2139052</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6147483054432877</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5981948186280931</v>
+        <v>0.5981643183875471</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6316795673022928</v>
+        <v>0.63330202177902</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1908</v>
@@ -3834,19 +3834,19 @@
         <v>1988300</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1927924</v>
+        <v>1926253</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2049123</v>
+        <v>2046808</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5629228157835786</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5458293318242052</v>
+        <v>0.5453563244822209</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5801429729642795</v>
+        <v>0.5794875910745155</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3860</v>
@@ -3855,19 +3855,19 @@
         <v>4064685</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3982262</v>
+        <v>3979577</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4150474</v>
+        <v>4145507</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.588256221622215</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5763277276923028</v>
+        <v>0.575939161948518</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6006719232920216</v>
+        <v>0.5999531580787246</v>
       </c>
     </row>
     <row r="18">
@@ -3884,19 +3884,19 @@
         <v>754347</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>711865</v>
+        <v>707409</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>806164</v>
+        <v>804145</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.223336921556859</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2107595200182975</v>
+        <v>0.2094402854434207</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2386782011492035</v>
+        <v>0.2380805347341156</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>892</v>
@@ -3905,19 +3905,19 @@
         <v>994660</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>942118</v>
+        <v>944977</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>1051805</v>
+        <v>1051406</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2816058514641033</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2667303496893589</v>
+        <v>0.2675395714453787</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2977845376946814</v>
+        <v>0.2976716592639486</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1654</v>
@@ -3926,19 +3926,19 @@
         <v>1749007</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1674317</v>
+        <v>1681191</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1827007</v>
+        <v>1829648</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2531227544626892</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2423132928888737</v>
+        <v>0.2433082462697153</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2644112953092067</v>
+        <v>0.2647933860516176</v>
       </c>
     </row>
     <row r="19">
@@ -4917,19 +4917,19 @@
         <v>711587</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>661481</v>
+        <v>658000</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>763723</v>
+        <v>764391</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2021162039006206</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1878843737660608</v>
+        <v>0.1868955179540205</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2169246253317053</v>
+        <v>0.217114445207067</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1004</v>
@@ -4938,19 +4938,19 @@
         <v>734877</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>691078</v>
+        <v>694292</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>778759</v>
+        <v>781156</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1971074907699235</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1853597091296884</v>
+        <v>0.1862218118583998</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2088773677410105</v>
+        <v>0.2095204055680803</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1685</v>
@@ -4959,19 +4959,19 @@
         <v>1446464</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1373903</v>
+        <v>1381429</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1512862</v>
+        <v>1511950</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1995401179323074</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.189530266911151</v>
+        <v>0.190568432570005</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2086996398836566</v>
+        <v>0.2085738229894982</v>
       </c>
     </row>
     <row r="17">
@@ -4988,19 +4988,19 @@
         <v>2230566</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2162677</v>
+        <v>2167677</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2293093</v>
+        <v>2292048</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.6335607230659805</v>
+        <v>0.6335607230659807</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6142778032114889</v>
+        <v>0.6156979962323486</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6513204897756679</v>
+        <v>0.6510236578349068</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2921</v>
@@ -5009,19 +5009,19 @@
         <v>2171392</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2117679</v>
+        <v>2115306</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2225870</v>
+        <v>2222486</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5824069625964751</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5680001184020572</v>
+        <v>0.5673635592940569</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5970190522917045</v>
+        <v>0.5961112102629903</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4913</v>
@@ -5030,19 +5030,19 @@
         <v>4401958</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4321537</v>
+        <v>4320768</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4488370</v>
+        <v>4483063</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.607251273685795</v>
+        <v>0.6072512736857952</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5961570669204831</v>
+        <v>0.5960510464843863</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6191717840604763</v>
+        <v>0.6184396779141214</v>
       </c>
     </row>
     <row r="18">
@@ -5059,19 +5059,19 @@
         <v>578529</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>539221</v>
+        <v>534614</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>627215</v>
+        <v>626105</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1643230730333987</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1531581043349651</v>
+        <v>0.1518493960875252</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1781513948427237</v>
+        <v>0.1778363385262801</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1427</v>
@@ -5080,19 +5080,19 @@
         <v>822038</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>780350</v>
+        <v>781034</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>861573</v>
+        <v>862340</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2204855466336016</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2093041355415014</v>
+        <v>0.2094874731023851</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2310894756187021</v>
+        <v>0.2312953939427604</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>2118</v>
@@ -5101,19 +5101,19 @@
         <v>1400567</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1346253</v>
+        <v>1340795</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1463303</v>
+        <v>1462936</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.1932086083818974</v>
+        <v>0.1932086083818975</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1857160022178033</v>
+        <v>0.1849630560500745</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.201863043658867</v>
+        <v>0.201812323441685</v>
       </c>
     </row>
     <row r="19">
